--- a/import-excel/test.xlsx
+++ b/import-excel/test.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\project\import-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\project\vue-excel-process-system\import-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7474985E-260B-412A-9640-0403EB0D09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A348953A-E9BA-4B6F-A2F2-D64E6FE11C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1968" yWindow="120" windowWidth="19728" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="refresh_no_solution" sheetId="4" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="refresh2" sheetId="1" r:id="rId1"/>
+    <sheet name="Refresh_no_solution" sheetId="4" r:id="rId2"/>
+    <sheet name="brilliance1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="204">
   <si>
     <t>ceshi1</t>
   </si>
@@ -80,15 +79,6 @@
   </si>
   <si>
     <t>s23</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>dbid</t>
@@ -675,7 +665,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,7 +676,14 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -712,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +720,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1034,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1077,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1091,453 +1094,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D990224-5C36-4CCD-81FD-370B9A14FE67}">
   <dimension ref="A1:EQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="EE2" sqref="EE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:147">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EL1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="EL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:147" ht="409.6">
@@ -1545,58 +1548,58 @@
         <v>34152928</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2">
         <v>43255.34103009259</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I2" s="2">
         <v>43838.0312037037</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="T2" s="1">
         <v>7</v>
@@ -1617,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC2" s="1">
         <v>0</v>
@@ -1632,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="2">
         <v>43640.347025462965</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AH2" s="3">
         <v>0</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AJ2" s="2">
         <v>43258.651400462964</v>
@@ -1698,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BJ2" s="1">
         <v>0</v>
@@ -1752,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BV2" s="1">
         <v>0</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BX2" s="1">
         <v>0</v>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="CH2" s="1">
         <v>0</v>
@@ -1809,79 +1812,79 @@
         <v>0</v>
       </c>
       <c r="CL2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DA2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CV2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DD2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DE2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="DK2" s="1">
         <v>0</v>
@@ -1911,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="DW2" s="1">
         <v>0</v>
@@ -1956,22 +1959,22 @@
         <v>0</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="EJ2" s="1">
         <v>0</v>
       </c>
       <c r="EK2" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="EN2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="EO2" s="1">
         <v>0</v>
@@ -1992,7 +1995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
@@ -2014,17 +2019,15 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2">
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -2033,71 +2036,11 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>5</v>
-      </c>
       <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
+        <v>234</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.79249999999999998</v>
       </c>
     </row>
   </sheetData>
